--- a/PromoterArea/PromoterComponentDiagram.xlsx
+++ b/PromoterArea/PromoterComponentDiagram.xlsx
@@ -192,8 +192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1524000" y="1905000"/>
-          <a:ext cx="34518600" cy="19735800"/>
+          <a:off x="1600200" y="1905000"/>
+          <a:ext cx="36842700" cy="19735800"/>
           <a:chOff x="1524000" y="1905000"/>
           <a:chExt cx="34518600" cy="19735800"/>
         </a:xfrm>
@@ -2797,16 +2797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>202131</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>606944</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>330136</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>154565</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>115824</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>178378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2815,8 +2815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44207631" y="4986338"/>
-          <a:ext cx="2414005" cy="1073727"/>
+          <a:off x="46422194" y="6343651"/>
+          <a:ext cx="2604505" cy="1073727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2854,16 +2854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>440256</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>602181</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>568261</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>168852</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>120586</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135515</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2872,8 +2872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40445256" y="5000625"/>
-          <a:ext cx="2414005" cy="1073727"/>
+          <a:off x="45712581" y="3824288"/>
+          <a:ext cx="2566405" cy="1073727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2901,7 +2901,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="3200"/>
+            <a:rPr lang="en-US" sz="3200" baseline="0"/>
             <a:t>ACCOUNT</a:t>
           </a:r>
         </a:p>
@@ -2911,29 +2911,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>568261</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>189202</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>56584</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>202131</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>12989</xdr:rowOff>
+      <xdr:colOff>56584</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="78" name="Straight Arrow Connector 77"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="3"/>
-          <a:endCxn id="74" idx="1"/>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="74" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="42859261" y="5523202"/>
-          <a:ext cx="1348370" cy="14287"/>
+        <a:xfrm>
+          <a:off x="46995784" y="4898015"/>
+          <a:ext cx="0" cy="1445636"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2965,16 +2965,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>83069</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>487882</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>211074</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59314</xdr:rowOff>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>615887</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2983,7 +2983,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51470444" y="7177087"/>
+          <a:off x="50017882" y="8534400"/>
           <a:ext cx="2604505" cy="1073727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3022,16 +3022,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>330136</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>189202</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>115824</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>147072</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>551885</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3043,8 +3043,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="46621636" y="5523202"/>
-          <a:ext cx="2102936" cy="1653885"/>
+          <a:off x="49026699" y="6880515"/>
+          <a:ext cx="2293436" cy="1653885"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3076,16 +3076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>59255</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>464068</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>187260</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>130751</xdr:rowOff>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>592073</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3094,8 +3094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50922755" y="4962524"/>
-          <a:ext cx="2414005" cy="1073727"/>
+          <a:off x="53708818" y="6319837"/>
+          <a:ext cx="2604505" cy="1073727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3133,16 +3133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>147072</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>165388</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>551885</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>189201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>59255</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>464068</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3154,8 +3154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="48724572" y="5499388"/>
-          <a:ext cx="2198183" cy="1677699"/>
+          <a:off x="51320135" y="6856701"/>
+          <a:ext cx="2388683" cy="1677699"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3187,16 +3187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>440257</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>225945</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>568262</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>59314</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>353950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3205,7 +3205,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48112882" y="9463087"/>
+          <a:off x="46660320" y="10820400"/>
           <a:ext cx="2604505" cy="1073727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3244,16 +3244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>504260</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59314</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>289948</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>147072</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>551885</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3265,7 +3265,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="49415135" y="8250814"/>
+          <a:off x="47962573" y="9608127"/>
           <a:ext cx="3357562" cy="1212273"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3298,16 +3298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>147072</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59314</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>551885</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>28010</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>432823</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3319,7 +3319,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="52772697" y="8250814"/>
+          <a:off x="51320135" y="9608127"/>
           <a:ext cx="2976563" cy="1212273"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3352,16 +3352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>583132</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>368820</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>92012</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>59314</xdr:rowOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>496825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3370,7 +3370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54447007" y="9463087"/>
+          <a:off x="52994445" y="10820400"/>
           <a:ext cx="2604505" cy="1073727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4005,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DH100" sqref="DH100"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="CF27" sqref="CF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PromoterArea/PromoterComponentDiagram.xlsx
+++ b/PromoterArea/PromoterComponentDiagram.xlsx
@@ -2161,52 +2161,6 @@
               </xdr:sp>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="19" name="Rectangle 18"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="29127318" y="1850015"/>
-                    <a:ext cx="2562469" cy="1073727"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="2800"/>
-                      <a:t>STORE</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:endParaRPr lang="en-US" sz="2800"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
                   <xdr:cNvPr id="30" name="Rectangle 29"/>
                   <xdr:cNvSpPr/>
                 </xdr:nvSpPr>
@@ -2453,42 +2407,6 @@
                   <a:xfrm flipH="1">
                     <a:off x="27109449" y="3810000"/>
                     <a:ext cx="2875251" cy="91355"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="straightConnector1">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:ln w="28575">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:prstDash val="solid"/>
-                    <a:tailEnd type="arrow"/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="tx1"/>
-                  </a:fontRef>
-                </xdr:style>
-              </xdr:cxnSp>
-              <xdr:cxnSp macro="">
-                <xdr:nvCxnSpPr>
-                  <xdr:cNvPr id="115" name="Straight Arrow Connector 114"/>
-                  <xdr:cNvCxnSpPr/>
-                </xdr:nvCxnSpPr>
-                <xdr:spPr>
-                  <a:xfrm flipH="1">
-                    <a:off x="27109450" y="2705100"/>
-                    <a:ext cx="2037050" cy="815255"/>
                   </a:xfrm>
                   <a:prstGeom prst="straightConnector1">
                     <a:avLst/>
@@ -4005,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CF27" sqref="CF27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BG18" sqref="BG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
